--- a/Kmer/output/samples_color_wid_dep_mvd_20220608.xlsx
+++ b/Kmer/output/samples_color_wid_dep_mvd_20220608.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wendy/Documents/CADVIP/Kmer/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0171020-A53B-AC4D-AC11-C1A6658ADC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03434AA1-3465-DB46-90F8-FF21A02A826C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14560" xr2:uid="{C86FC817-D554-0C43-93D0-92B8FF472ED3}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="25600" windowHeight="14560" activeTab="4" xr2:uid="{C86FC817-D554-0C43-93D0-92B8FF472ED3}"/>
   </bookViews>
   <sheets>
     <sheet name="AUC_color_y123" sheetId="1" r:id="rId1"/>
     <sheet name="indent_width_y2" sheetId="2" r:id="rId2"/>
     <sheet name="indent_depth_y2" sheetId="3" r:id="rId3"/>
     <sheet name="mvd" sheetId="4" r:id="rId4"/>
+    <sheet name="dilution" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="540">
   <si>
     <t>Sample</t>
   </si>
@@ -814,9 +815,6 @@
     <t>POP27_37POP29_23</t>
   </si>
   <si>
-    <t>POP30_54POP31_79</t>
-  </si>
-  <si>
     <t>POP31_49POP31_57</t>
   </si>
   <si>
@@ -826,9 +824,6 @@
     <t>POP26_25POP29_05POP29_75</t>
   </si>
   <si>
-    <t>POP26_91POP28_40</t>
-  </si>
-  <si>
     <t>POP25_80POP29_28POP29_78</t>
   </si>
   <si>
@@ -838,18 +833,12 @@
     <t>POP31_68POP31_80</t>
   </si>
   <si>
-    <t>POP29_62POP30_22</t>
-  </si>
-  <si>
     <t>POP29_07POP30_61</t>
   </si>
   <si>
     <t>POP26_84POP28_60POP29_93</t>
   </si>
   <si>
-    <t>POP28_84POP31_72</t>
-  </si>
-  <si>
     <t>POP25_20</t>
   </si>
   <si>
@@ -868,12 +857,6 @@
     <t>POP28_23</t>
   </si>
   <si>
-    <t>POP30_10POP31_24</t>
-  </si>
-  <si>
-    <t>POP28_53POP29_48</t>
-  </si>
-  <si>
     <t>POP25_83</t>
   </si>
   <si>
@@ -1394,14 +1377,310 @@
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>POP29_53</t>
+  </si>
+  <si>
+    <t>POP28_04</t>
+  </si>
+  <si>
+    <t>POP27_37</t>
+  </si>
+  <si>
+    <t>POP29_23</t>
+  </si>
+  <si>
+    <t>POP25_30</t>
+  </si>
+  <si>
+    <t>POP29_21</t>
+  </si>
+  <si>
+    <t>POP26_03</t>
+  </si>
+  <si>
+    <t>POP29_66</t>
+  </si>
+  <si>
+    <t>POP30_54</t>
+  </si>
+  <si>
+    <t>POP31_79</t>
+  </si>
+  <si>
+    <t>POP31_49</t>
+  </si>
+  <si>
+    <t>POP31_57</t>
+  </si>
+  <si>
+    <t>POP31_32</t>
+  </si>
+  <si>
+    <t>POP31_55</t>
+  </si>
+  <si>
+    <t>POP26_25</t>
+  </si>
+  <si>
+    <t>POP26_91</t>
+  </si>
+  <si>
+    <t>POP28_40</t>
+  </si>
+  <si>
+    <t>POP25_80</t>
+  </si>
+  <si>
+    <t>POP28_80</t>
+  </si>
+  <si>
+    <t>POP29_57</t>
+  </si>
+  <si>
+    <t>POP31_68</t>
+  </si>
+  <si>
+    <t>POP31_80</t>
+  </si>
+  <si>
+    <t>POP29_05</t>
+  </si>
+  <si>
+    <t>POP29_75</t>
+  </si>
+  <si>
+    <t>POP29_28</t>
+  </si>
+  <si>
+    <t>POP29_78</t>
+  </si>
+  <si>
+    <t>POP29_62</t>
+  </si>
+  <si>
+    <t>POP30_22</t>
+  </si>
+  <si>
+    <t>POP29_07</t>
+  </si>
+  <si>
+    <t>POP30_61</t>
+  </si>
+  <si>
+    <t>POP26_84</t>
+  </si>
+  <si>
+    <t>POP28_60</t>
+  </si>
+  <si>
+    <t>POP29_93</t>
+  </si>
+  <si>
+    <t>POP28_84</t>
+  </si>
+  <si>
+    <t>POP31_72</t>
+  </si>
+  <si>
+    <t>POP28_50</t>
+  </si>
+  <si>
+    <t>POP30_75</t>
+  </si>
+  <si>
+    <t>POP30_10</t>
+  </si>
+  <si>
+    <t>POP31_24</t>
+  </si>
+  <si>
+    <t>POP28_53</t>
+  </si>
+  <si>
+    <t>POP29_48</t>
+  </si>
+  <si>
+    <t>Seq.Name1</t>
+  </si>
+  <si>
+    <t>Seq.Name2</t>
+  </si>
+  <si>
+    <t>Seq.Name3</t>
+  </si>
+  <si>
+    <t>Plate.Well1</t>
+  </si>
+  <si>
+    <t>Plate.Well2</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>Libs</t>
+  </si>
+  <si>
+    <t>POP25</t>
+  </si>
+  <si>
+    <t>POP26</t>
+  </si>
+  <si>
+    <t>POP27</t>
+  </si>
+  <si>
+    <t>POP28</t>
+  </si>
+  <si>
+    <t>POP29</t>
+  </si>
+  <si>
+    <t>POP30</t>
+  </si>
+  <si>
+    <t>POP31</t>
+  </si>
+  <si>
+    <t>1ng/ul</t>
+  </si>
+  <si>
+    <t>2ng/ul</t>
+  </si>
+  <si>
+    <t>6ng/ul</t>
+  </si>
+  <si>
+    <t>8ng/ul</t>
+  </si>
+  <si>
+    <t>4ng/ul</t>
+  </si>
+  <si>
+    <t>5ng/ul</t>
+  </si>
+  <si>
+    <t>1ul</t>
+  </si>
+  <si>
+    <t>Final Concentration</t>
+  </si>
+  <si>
+    <t>1ul+0ul</t>
+  </si>
+  <si>
+    <t>Dilution (lib+H2O)</t>
+  </si>
+  <si>
+    <t>1ul+1ul</t>
+  </si>
+  <si>
+    <t>1ul+5ul</t>
+  </si>
+  <si>
+    <t>1ul+7ul</t>
+  </si>
+  <si>
+    <t>1ul+3ul</t>
+  </si>
+  <si>
+    <t>1ul+4ul</t>
+  </si>
+  <si>
+    <t>Initial Concentration</t>
+  </si>
+  <si>
+    <t>Final Amount</t>
+  </si>
+  <si>
+    <t>Plate1</t>
+  </si>
+  <si>
+    <t>Plate2</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>Plate3</t>
+  </si>
+  <si>
+    <t>Plate.Well3</t>
+  </si>
+  <si>
+    <t>F6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1417,7 +1696,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1425,15 +1704,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1750,7 +2046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5640EED1-1246-F64A-B983-A3818103E4E7}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1765,7 +2061,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B1" t="s">
         <v>82</v>
@@ -1777,7 +2073,7 @@
         <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2908,10 +3204,1566 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665D2683-0550-FD4B-B2A9-89F746321510}">
+  <dimension ref="A1:P81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I1" t="s">
+        <v>511</v>
+      </c>
+      <c r="J1" t="s">
+        <v>520</v>
+      </c>
+      <c r="K1" t="s">
+        <v>492</v>
+      </c>
+      <c r="L1" t="s">
+        <v>511</v>
+      </c>
+      <c r="M1" t="s">
+        <v>537</v>
+      </c>
+      <c r="N1" t="s">
+        <v>538</v>
+      </c>
+      <c r="O1" t="s">
+        <v>511</v>
+      </c>
+      <c r="P1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H2" t="s">
+        <v>446</v>
+      </c>
+      <c r="I2" t="s">
+        <v>513</v>
+      </c>
+      <c r="J2" t="s">
+        <v>499</v>
+      </c>
+      <c r="K2" t="s">
+        <v>493</v>
+      </c>
+      <c r="L2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" t="s">
+        <v>499</v>
+      </c>
+      <c r="H3" t="s">
+        <v>521</v>
+      </c>
+      <c r="I3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" t="s">
+        <v>496</v>
+      </c>
+      <c r="H4" t="s">
+        <v>522</v>
+      </c>
+      <c r="I4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" t="s">
+        <v>496</v>
+      </c>
+      <c r="H5" t="s">
+        <v>523</v>
+      </c>
+      <c r="I5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" t="s">
+        <v>499</v>
+      </c>
+      <c r="H6" t="s">
+        <v>524</v>
+      </c>
+      <c r="I6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>449</v>
+      </c>
+      <c r="E7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G7" t="s">
+        <v>497</v>
+      </c>
+      <c r="H7" t="s">
+        <v>525</v>
+      </c>
+      <c r="I7" t="s">
+        <v>512</v>
+      </c>
+      <c r="J7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K7" t="s">
+        <v>526</v>
+      </c>
+      <c r="L7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>451</v>
+      </c>
+      <c r="E8" t="s">
+        <v>452</v>
+      </c>
+      <c r="G8" t="s">
+        <v>495</v>
+      </c>
+      <c r="H8" t="s">
+        <v>522</v>
+      </c>
+      <c r="I8" t="s">
+        <v>510</v>
+      </c>
+      <c r="J8" t="s">
+        <v>499</v>
+      </c>
+      <c r="K8" t="s">
+        <v>527</v>
+      </c>
+      <c r="L8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E9" t="s">
+        <v>454</v>
+      </c>
+      <c r="G9" t="s">
+        <v>496</v>
+      </c>
+      <c r="H9" t="s">
+        <v>528</v>
+      </c>
+      <c r="I9" t="s">
+        <v>512</v>
+      </c>
+      <c r="J9" t="s">
+        <v>499</v>
+      </c>
+      <c r="K9" t="s">
+        <v>529</v>
+      </c>
+      <c r="L9" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" t="s">
+        <v>497</v>
+      </c>
+      <c r="H10" t="s">
+        <v>530</v>
+      </c>
+      <c r="I10" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" t="s">
+        <v>495</v>
+      </c>
+      <c r="H11" t="s">
+        <v>531</v>
+      </c>
+      <c r="I11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>497</v>
+      </c>
+      <c r="H12" t="s">
+        <v>532</v>
+      </c>
+      <c r="I12" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" t="s">
+        <v>496</v>
+      </c>
+      <c r="H13" t="s">
+        <v>533</v>
+      </c>
+      <c r="I13" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>455</v>
+      </c>
+      <c r="E14" t="s">
+        <v>456</v>
+      </c>
+      <c r="G14" t="s">
+        <v>500</v>
+      </c>
+      <c r="H14" t="s">
+        <v>534</v>
+      </c>
+      <c r="I14" t="s">
+        <v>515</v>
+      </c>
+      <c r="J14" t="s">
+        <v>501</v>
+      </c>
+      <c r="K14" t="s">
+        <v>533</v>
+      </c>
+      <c r="L14" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>211</v>
+      </c>
+      <c r="G15" t="s">
+        <v>500</v>
+      </c>
+      <c r="H15" t="s">
+        <v>524</v>
+      </c>
+      <c r="I15" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" t="s">
+        <v>497</v>
+      </c>
+      <c r="H16" t="s">
+        <v>535</v>
+      </c>
+      <c r="I16" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" t="s">
+        <v>497</v>
+      </c>
+      <c r="H17" t="s">
+        <v>536</v>
+      </c>
+      <c r="I17" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G18" t="s">
+        <v>496</v>
+      </c>
+      <c r="H18" t="s">
+        <v>539</v>
+      </c>
+      <c r="I18" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G19" t="s">
+        <v>499</v>
+      </c>
+      <c r="I19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" t="s">
+        <v>498</v>
+      </c>
+      <c r="I20" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" t="s">
+        <v>501</v>
+      </c>
+      <c r="I21" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" t="s">
+        <v>500</v>
+      </c>
+      <c r="I22" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" t="s">
+        <v>495</v>
+      </c>
+      <c r="I23" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>457</v>
+      </c>
+      <c r="E24" t="s">
+        <v>458</v>
+      </c>
+      <c r="G24" t="s">
+        <v>501</v>
+      </c>
+      <c r="I24" t="s">
+        <v>516</v>
+      </c>
+      <c r="J24" t="s">
+        <v>501</v>
+      </c>
+      <c r="L24" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" t="s">
+        <v>500</v>
+      </c>
+      <c r="I25" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>498</v>
+      </c>
+      <c r="I26" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" t="s">
+        <v>497</v>
+      </c>
+      <c r="I27" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>459</v>
+      </c>
+      <c r="E28" t="s">
+        <v>460</v>
+      </c>
+      <c r="G28" t="s">
+        <v>501</v>
+      </c>
+      <c r="I28" t="s">
+        <v>516</v>
+      </c>
+      <c r="J28" t="s">
+        <v>501</v>
+      </c>
+      <c r="L28" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>461</v>
+      </c>
+      <c r="E29" t="s">
+        <v>469</v>
+      </c>
+      <c r="F29" t="s">
+        <v>470</v>
+      </c>
+      <c r="G29" t="s">
+        <v>496</v>
+      </c>
+      <c r="I29" t="s">
+        <v>512</v>
+      </c>
+      <c r="J29" t="s">
+        <v>499</v>
+      </c>
+      <c r="L29" t="s">
+        <v>514</v>
+      </c>
+      <c r="M29" t="s">
+        <v>499</v>
+      </c>
+      <c r="O29" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>462</v>
+      </c>
+      <c r="E31" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>464</v>
+      </c>
+      <c r="E44" t="s">
+        <v>471</v>
+      </c>
+      <c r="F44" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>465</v>
+      </c>
+      <c r="E46" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>467</v>
+      </c>
+      <c r="E49" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>473</v>
+      </c>
+      <c r="E52" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>475</v>
+      </c>
+      <c r="E53" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>477</v>
+      </c>
+      <c r="E55" t="s">
+        <v>478</v>
+      </c>
+      <c r="F55" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>480</v>
+      </c>
+      <c r="E56" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>482</v>
+      </c>
+      <c r="E58" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>484</v>
+      </c>
+      <c r="E71" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>486</v>
+      </c>
+      <c r="E72" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>202</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>203</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D991CDCD-E3F9-994F-B8AF-777BC596BD10}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C68" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2925,7 +4777,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B1" t="s">
         <v>82</v>
@@ -2937,7 +4789,7 @@
         <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2945,13 +4797,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>276</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2959,13 +4811,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2973,13 +4825,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2987,13 +4839,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>277</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3001,13 +4853,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3015,13 +4867,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3029,13 +4881,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3043,13 +4895,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3057,13 +4909,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3071,13 +4923,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>279</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3085,13 +4937,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>280</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3099,13 +4951,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3113,13 +4965,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3127,13 +4979,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>281</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>211</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3141,13 +4993,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3155,13 +5007,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>283</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3169,13 +5021,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>284</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3183,13 +5035,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>285</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>215</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3197,13 +5049,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>286</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3211,13 +5063,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>217</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3225,13 +5077,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3239,13 +5091,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -3253,13 +5105,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>259</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -3267,13 +5119,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>287</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>220</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3281,13 +5133,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>288</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3295,13 +5147,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3309,13 +5161,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -3323,13 +5175,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>261</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -3337,13 +5189,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>223</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -3351,13 +5203,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>291</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>262</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -3365,13 +5217,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>292</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3379,13 +5231,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>224</v>
+        <v>293</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>225</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3393,13 +5245,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>226</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3407,13 +5259,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>294</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>227</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3421,13 +5273,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3435,13 +5287,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -3449,13 +5301,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -3463,13 +5315,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>295</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>238</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3477,13 +5329,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>296</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>229</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -3491,13 +5343,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -3519,13 +5371,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -3533,7 +5385,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
@@ -3547,13 +5399,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>297</v>
       </c>
       <c r="C45" s="1">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>233</v>
+        <v>334</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -3561,13 +5413,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C46" s="1">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -3575,13 +5427,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C47" s="1">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -3589,13 +5441,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="C48" s="1">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>235</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -3603,13 +5455,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>184</v>
+        <v>298</v>
       </c>
       <c r="C49" s="1">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -3617,13 +5469,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C50" s="1">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -3631,13 +5483,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -3645,13 +5497,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="C52" s="1">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>266</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -3659,13 +5511,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="C53" s="1">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -3673,7 +5525,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="C54" s="1">
         <v>2</v>
@@ -3687,13 +5539,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>299</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>268</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -3701,13 +5553,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>300</v>
       </c>
       <c r="C56" s="1">
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>269</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -3715,13 +5567,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>270</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -3729,13 +5581,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>301</v>
       </c>
       <c r="C58" s="1">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>241</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -3743,13 +5595,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -3757,13 +5609,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -3771,13 +5623,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>302</v>
       </c>
       <c r="C61" s="1">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>93</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -3785,13 +5637,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>303</v>
       </c>
       <c r="C62" s="1">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>84</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -3799,13 +5651,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>304</v>
       </c>
       <c r="C63" s="1">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>118</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -3813,13 +5665,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="C64" s="1">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -3827,13 +5679,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C65" s="1">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -3841,13 +5693,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>195</v>
+        <v>306</v>
       </c>
       <c r="C66" s="1">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>273</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -3855,13 +5707,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>196</v>
+        <v>307</v>
       </c>
       <c r="C67" s="1">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>274</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -3869,13 +5721,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="C68" s="1">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>275</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -3883,13 +5735,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="C69" s="1">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -3897,13 +5749,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="C70" s="1">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>108</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -3911,13 +5763,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C71" s="1">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -3925,13 +5777,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
       <c r="C72" s="1">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>277</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -3939,13 +5791,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C73" s="1">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -3953,13 +5805,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="C74" s="1">
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>88</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -3967,13 +5819,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="C75" s="1">
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>113</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -3981,13 +5833,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>201</v>
+        <v>310</v>
       </c>
       <c r="C76" s="1">
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>279</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -3995,13 +5847,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="C77" s="1">
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>120</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -4009,13 +5861,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="C78" s="1">
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>125</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -4023,13 +5875,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>311</v>
       </c>
       <c r="C79" s="1">
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -4037,13 +5889,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="C80" s="1">
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>280</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -4051,1173 +5903,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>313</v>
       </c>
       <c r="C81" s="1">
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>281</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D991CDCD-E3F9-994F-B8AF-777BC596BD10}">
-  <dimension ref="A1:E81"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>286</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>287</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>288</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>289</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>290</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>291</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>292</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>293</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>294</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>295</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>296</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>297</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>298</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>300</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>167</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>166</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>301</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>302</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>177</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" s="1">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>184</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2</v>
-      </c>
-      <c r="D44" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>303</v>
-      </c>
-      <c r="C45" s="1">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>179</v>
-      </c>
-      <c r="C46" s="1">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" s="1">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="1">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>304</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="1">
-        <v>2</v>
-      </c>
-      <c r="D50" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>181</v>
-      </c>
-      <c r="C51" s="1">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="1">
-        <v>2</v>
-      </c>
-      <c r="D53" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>305</v>
-      </c>
-      <c r="C55" s="1">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>306</v>
-      </c>
-      <c r="C56" s="1">
-        <v>2</v>
-      </c>
-      <c r="D56" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="1">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>307</v>
-      </c>
-      <c r="C58" s="1">
-        <v>2</v>
-      </c>
-      <c r="D58" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>186</v>
-      </c>
-      <c r="C59" s="1">
-        <v>2</v>
-      </c>
-      <c r="D59" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>183</v>
-      </c>
-      <c r="C60" s="1">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>308</v>
-      </c>
-      <c r="C61" s="1">
-        <v>2</v>
-      </c>
-      <c r="D61" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>309</v>
-      </c>
-      <c r="C62" s="1">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>310</v>
-      </c>
-      <c r="C63" s="1">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>311</v>
-      </c>
-      <c r="C64" s="1">
-        <v>2</v>
-      </c>
-      <c r="D64" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" s="1">
-        <v>2</v>
-      </c>
-      <c r="D65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>312</v>
-      </c>
-      <c r="C66" s="1">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>313</v>
-      </c>
-      <c r="C67" s="1">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="1">
-        <v>2</v>
-      </c>
-      <c r="D68" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>314</v>
-      </c>
-      <c r="C69" s="1">
-        <v>2</v>
-      </c>
-      <c r="D69" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>195</v>
-      </c>
-      <c r="C70" s="1">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>189</v>
-      </c>
-      <c r="C71" s="1">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>315</v>
-      </c>
-      <c r="C72" s="1">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>203</v>
-      </c>
-      <c r="C73" s="1">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>185</v>
-      </c>
-      <c r="C74" s="1">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>182</v>
-      </c>
-      <c r="C75" s="1">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>316</v>
-      </c>
-      <c r="C76" s="1">
-        <v>2</v>
-      </c>
-      <c r="D76" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>197</v>
-      </c>
-      <c r="C77" s="1">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>190</v>
-      </c>
-      <c r="C78" s="1">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>317</v>
-      </c>
-      <c r="C79" s="1">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>318</v>
-      </c>
-      <c r="C80" s="1">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>319</v>
-      </c>
-      <c r="C81" s="1">
-        <v>2</v>
-      </c>
-      <c r="D81" t="s">
-        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -5244,7 +5936,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5256,7 +5948,7 @@
         <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5264,13 +5956,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5278,13 +5970,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5292,13 +5984,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5306,13 +5998,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -5320,13 +6012,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -5348,13 +6040,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5362,13 +6054,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -5376,13 +6068,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -5390,13 +6082,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -5418,13 +6110,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5432,13 +6124,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5446,13 +6138,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -5460,13 +6152,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -5474,13 +6166,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -5502,13 +6194,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -5600,13 +6292,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -5614,7 +6306,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -5634,7 +6326,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -5670,13 +6362,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -5684,13 +6376,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -5698,13 +6390,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -5712,13 +6404,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -5740,13 +6432,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -5754,13 +6446,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -5768,13 +6460,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -5782,7 +6474,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -5796,13 +6488,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -5824,13 +6516,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C42" s="1">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -5838,13 +6530,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -5872,7 +6564,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -5894,13 +6586,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C47" s="1">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -5908,13 +6600,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C48" s="1">
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -5928,7 +6620,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -5936,13 +6628,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C50" s="1">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -5950,13 +6642,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -5964,13 +6656,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C52" s="1">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -5978,13 +6670,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C53" s="1">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -5992,13 +6684,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C54" s="1">
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -6006,13 +6698,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -6048,13 +6740,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C58" s="1">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -6104,13 +6796,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C62" s="1">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -6132,13 +6824,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C64" s="1">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -6160,13 +6852,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C66" s="1">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -6188,13 +6880,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C68" s="1">
         <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -6216,13 +6908,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C70" s="1">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -6230,13 +6922,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C71" s="1">
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -6244,13 +6936,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C72" s="1">
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -6258,13 +6950,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C73" s="1">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -6286,13 +6978,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C75" s="1">
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -6314,13 +7006,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C77" s="1">
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -6328,13 +7020,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C78" s="1">
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -6342,13 +7034,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C79" s="1">
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -6356,13 +7048,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C80" s="1">
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -6383,4 +7075,162 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A3524E-B9E0-3C4D-979D-B00D77ACD70E}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>